--- a/Unit 1/Project Outline/Literature Search.xlsx
+++ b/Unit 1/Project Outline/Literature Search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kaplanint-my.sharepoint.com/personal/anrich_potgieter_aspectworld_com/Documents/Studies/CSPROJ/Dissertation/Unit 1/Project Outline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{BD516A23-DFB5-4925-81C9-2EA301908337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B41E3303-C794-4270-B550-E1977460CCD9}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{BD516A23-DFB5-4925-81C9-2EA301908337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB15B50-9CFF-428C-95EE-E1DA1D24ECBF}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16526BBB-8D80-4211-8D78-C5AF4F875964}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>The proposed topic of my dissertation</t>
   </si>
@@ -113,6 +113,39 @@
   </si>
   <si>
     <t>Zhang, Q. et al. (2021) ‘Overview of Blockchain Data Privacy Protection’, in 2021 3rd Blockchain and Internet of Things Conference. New York, NY, USA: Association for Computing Machinery (BIOTC 2021), pp. 53–58. doi:10.1145/3475992.3476000.</t>
+  </si>
+  <si>
+    <t>"cross chain protocol"</t>
+  </si>
+  <si>
+    <t>IEEE Xplore</t>
+  </si>
+  <si>
+    <t>Cao, L. and Song, B. (2021) ‘Blockchain cross-chain protocol and platform research and development’, in 2021 International Conference on Electronics, Circuits and Information Engineering (ECIE). 2021 International Conference on Electronics, Circuits and Information Engineering (ECIE), pp. 264–269. doi:10.1109/ECIE52353.2021.00063.</t>
+  </si>
+  <si>
+    <t>Pillai, B. et al. (2020) ‘The Burn-to-Claim cross-blockchain asset transfer protocol’, in 2020 25th International Conference on Engineering of Complex Computer Systems (ICECCS). 2020 25th International Conference on Engineering of Complex Computer Systems (ICECCS), pp. 119–124. doi:10.1109/ICECCS51672.2020.00021.</t>
+  </si>
+  <si>
+    <t>"blockchain interoperability"</t>
+  </si>
+  <si>
+    <t>Borkowski, M. et al. (2019) ‘Dextt: Deterministic Cross-Blockchain Token Transfers’, IEEE Access, 7, pp. 111030–111042. doi:10.1109/ACCESS.2019.2934707.</t>
+  </si>
+  <si>
+    <t>Ghosh, B.C. et al. (2021) ‘Leveraging Public-Private Blockchain Interoperability for Closed Consortium Interfacing’, in IEEE INFOCOM 2021 - IEEE Conference on Computer Communications. IEEE INFOCOM 2021 - IEEE Conference on Computer Communications, pp. 1–10. doi:10.1109/INFOCOM42981.2021.9488683.</t>
+  </si>
+  <si>
+    <t>Khan, S. et al. (2021) ‘Towards Interoperable Blockchains: A Survey on the Role of Smart Contracts in Blockchain Interoperability’, IEEE Access, 9, pp. 116672–116691. doi:10.1109/ACCESS.2021.3106384.</t>
+  </si>
+  <si>
+    <t>Monika and Bhatia, R. (2020) ‘Interoperability Solutions for Blockchain’, in 2020 International Conference on Smart Technologies in Computing, Electrical and Electronics (ICSTCEE). 2020 International Conference on Smart Technologies in Computing, Electrical and Electronics (ICSTCEE), pp. 381–385. doi:10.1109/ICSTCEE49637.2020.9277054.</t>
+  </si>
+  <si>
+    <t>Pang, Y. (2020) ‘A New Consensus Protocol for Blockchain Interoperability Architecture’, IEEE Access, 8, pp. 153719–153730. doi:10.1109/ACCESS.2020.3017549.</t>
+  </si>
+  <si>
+    <t>Wang, G. and Nixon, M. (2021) ‘InterTrust: Towards an Efficient Blockchain Interoperability Architecture with Trusted Services’, in 2021 IEEE International Conference on Blockchain (Blockchain). 2021 IEEE International Conference on Blockchain (Blockchain), pp. 150–159. doi:10.1109/Blockchain53845.2021.00029.</t>
   </si>
 </sst>
 </file>
@@ -178,14 +211,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -501,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120959EB-A803-4FCC-BB86-8783F0D6091E}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +577,7 @@
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="4">
@@ -554,118 +585,213 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="7"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="7"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="7"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="7"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="7"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="7"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C18" s="6" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="6" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C22" s="6" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C24" s="6" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="7">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C31" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C35" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C37" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C39" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C41" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C43" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>12</v>
       </c>
     </row>
@@ -682,8 +808,18 @@
     <hyperlink ref="C20" r:id="rId9" display="https://doi.org/10.1145/3423390.3426724" xr:uid="{6318BE05-0B22-4979-861B-C1261262512E}"/>
     <hyperlink ref="C22" r:id="rId10" display="https://doi.org/10.1145/3390566.3391665" xr:uid="{746E8134-0CE5-40C1-A594-69D58D610004}"/>
     <hyperlink ref="C24" r:id="rId11" display="https://doi.org/10.1145/3475992.3476000" xr:uid="{FA140FB7-E54D-46E9-B73C-7A894E137A63}"/>
+    <hyperlink ref="C25" r:id="rId12" display="https://doi.org/10.1109/ECIE52353.2021.00063" xr:uid="{92E71C1D-55DF-4818-97AC-474F89BD7E9C}"/>
+    <hyperlink ref="C27" r:id="rId13" display="https://doi.org/10.1109/ICECCS51672.2020.00021" xr:uid="{5A245DEE-E80B-47AD-B901-542D2EA322CA}"/>
+    <hyperlink ref="C29" r:id="rId14" display="https://doi.org/10.1109/ACCESS.2019.2934707" xr:uid="{C2EEFFA1-0AE7-43CA-8B17-C83BFE1EEC7B}"/>
+    <hyperlink ref="C31" r:id="rId15" display="https://doi.org/10.1109/INFOCOM42981.2021.9488683" xr:uid="{F9EA4C4D-5A67-4837-9D41-31D9979F6EAB}"/>
+    <hyperlink ref="C33" r:id="rId16" display="https://doi.org/10.1109/ACCESS.2021.3106384" xr:uid="{8FEDF0EB-5825-459A-99CD-508A3D995DEF}"/>
+    <hyperlink ref="C35" r:id="rId17" display="https://doi.org/10.1109/ICSTCEE49637.2020.9277054" xr:uid="{E436504C-CB13-4022-978B-29088AE06E64}"/>
+    <hyperlink ref="C37" r:id="rId18" display="https://doi.org/10.1109/ACCESS.2020.3017549" xr:uid="{5A9B91F9-EB25-460D-8100-5D6488996736}"/>
+    <hyperlink ref="C39" r:id="rId19" display="https://doi.org/10.1109/ICECCS51672.2020.00021" xr:uid="{CF815A2A-D4DD-4CDC-9F30-C6F5F13DF3CB}"/>
+    <hyperlink ref="C41" r:id="rId20" display="https://doi.org/10.1145/3423390.3426724" xr:uid="{D5752673-72D3-4A12-B2C4-844A17CA2B54}"/>
+    <hyperlink ref="C43" r:id="rId21" display="https://doi.org/10.1109/Blockchain53845.2021.00029" xr:uid="{7BF43860-41D5-4E54-B3FB-A793029B2637}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>